--- a/data/2017_data.xlsx
+++ b/data/2017_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_88029DCF5F6968DE92160B2FBB1FF44B512F1F22" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{816335CE-F815-4169-8E92-C0050B9CC088}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="292">
   <si>
     <t>title</t>
   </si>
@@ -25,16 +31,574 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Despacito</t>
   </si>
   <si>
+    <t>That's What I Like</t>
+  </si>
+  <si>
+    <t>Humble.</t>
+  </si>
+  <si>
+    <t>Something Just Like This</t>
+  </si>
+  <si>
+    <t>Bad And Boujee</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Body Like A Back Road</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>Say You Won't Let Go</t>
+  </si>
+  <si>
+    <t>I'm The One</t>
+  </si>
+  <si>
+    <t>XO TOUR Llif3</t>
+  </si>
+  <si>
+    <t>Mask Off</t>
+  </si>
+  <si>
+    <t>Unforgettable</t>
+  </si>
+  <si>
+    <t>24K Magic</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Wild Thoughts</t>
+  </si>
+  <si>
+    <t>Black Beatles</t>
+  </si>
+  <si>
+    <t>Starboy</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>There's Nothing Holdin' Me Back</t>
+  </si>
+  <si>
+    <t>Bodak Yellow (Money Moves)</t>
+  </si>
+  <si>
+    <t>Redbone</t>
+  </si>
+  <si>
+    <t>I Don't Wanna Live Forever (Fifty Shades Darker)</t>
+  </si>
+  <si>
+    <t>It Ain't Me</t>
+  </si>
+  <si>
+    <t>iSpy</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Scars To Your Beautiful</t>
+  </si>
+  <si>
+    <t>1-800-273-8255</t>
+  </si>
+  <si>
+    <t>Slow Hands</t>
+  </si>
+  <si>
+    <t>Love On The Brain</t>
+  </si>
+  <si>
+    <t>I Feel It Coming</t>
+  </si>
+  <si>
+    <t>Bounce Back</t>
+  </si>
+  <si>
+    <t>Strip That Down</t>
+  </si>
+  <si>
+    <t>Fake Love</t>
+  </si>
+  <si>
+    <t>Don't Wanna Know</t>
+  </si>
+  <si>
+    <t>Look What You Made Me Do</t>
+  </si>
+  <si>
+    <t>Castle On The Hill</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Side To Side</t>
+  </si>
+  <si>
+    <t>Rockabye</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
+    <t>Sorry Not Sorry</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Can't Stop The Feeling!</t>
+  </si>
+  <si>
+    <t>Mi Gente</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Rake It Up</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Tunnel Vision</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>In Case You Didn't Know</t>
+  </si>
+  <si>
+    <t>Heathens</t>
+  </si>
+  <si>
+    <t>Now Or Never</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Rolex</t>
+  </si>
+  <si>
+    <t>DNA.</t>
+  </si>
+  <si>
+    <t>Juju On That Beat (TZ Anthem)</t>
+  </si>
+  <si>
+    <t>Swang</t>
+  </si>
+  <si>
+    <t>Passionfruit</t>
+  </si>
+  <si>
+    <t>Loyalty.</t>
+  </si>
+  <si>
+    <t>Praying</t>
+  </si>
+  <si>
+    <t>Goosebumps</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>What Ifs</t>
+  </si>
+  <si>
+    <t>Chained To The Rhythm</t>
+  </si>
+  <si>
+    <t>Feels</t>
+  </si>
+  <si>
+    <t>All Time Low</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Too Good At Goodbyes</t>
+  </si>
+  <si>
+    <t>Young Dumb &amp; Broke</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Love Galore</t>
+  </si>
+  <si>
+    <t>Drowning</t>
+  </si>
+  <si>
+    <t>Starving</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>What About Us</t>
+  </si>
+  <si>
+    <t>Swalla</t>
+  </si>
+  <si>
+    <t>Slippery</t>
+  </si>
+  <si>
+    <t>Sign Of The Times</t>
+  </si>
+  <si>
+    <t>Water Under The Bridge</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>No Promises</t>
+  </si>
+  <si>
+    <t>Treat You Better</t>
+  </si>
+  <si>
+    <t>I Get The Bag</t>
+  </si>
+  <si>
+    <t>Small Town Boy</t>
+  </si>
+  <si>
+    <t>Everyday We Lit</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>What Lovers Do</t>
+  </si>
+  <si>
+    <t>Do Re Mi</t>
+  </si>
+  <si>
+    <t>Look At Me!</t>
+  </si>
+  <si>
+    <t>The Fighter</t>
+  </si>
+  <si>
     <t>Luis Fonsi &amp; Daddy Yankee Featuring Justin Bieber</t>
   </si>
   <si>
-    <t>That's What I Like</t>
-  </si>
-  <si>
     <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>The Chainsmokers &amp; Coldplay</t>
+  </si>
+  <si>
+    <t>Migos Featuring Lil Uzi Vert</t>
+  </si>
+  <si>
+    <t>The Chainsmokers Featuring Halsey</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Post Malone Featuring Quavo</t>
+  </si>
+  <si>
+    <t>James Arthur</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring Justin Bieber, Quavo, Chance The Rapper &amp; Lil Wayne</t>
+  </si>
+  <si>
+    <t>Lil Uzi Vert</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>French Montana Featuring Swae Lee</t>
+  </si>
+  <si>
+    <t>Zedd &amp; Alessia Cara</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring Rihanna &amp; Bryson Tiller</t>
+  </si>
+  <si>
+    <t>Rae Sremmurd Featuring Gucci Mane</t>
+  </si>
+  <si>
+    <t>The Weeknd Featuring Daft Punk</t>
+  </si>
+  <si>
+    <t>Khalid</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Zayn / Taylor Swift</t>
+  </si>
+  <si>
+    <t>Kygo x Selena Gomez</t>
+  </si>
+  <si>
+    <t>KYLE Featuring Lil Yachty</t>
+  </si>
+  <si>
+    <t>Julia Michaels</t>
+  </si>
+  <si>
+    <t>Alessia Cara</t>
+  </si>
+  <si>
+    <t>Logic Featuring Alessia Cara &amp; Khalid</t>
+  </si>
+  <si>
+    <t>Niall Horan</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Big Sean</t>
+  </si>
+  <si>
+    <t>Liam Payne Featuring Quavo</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Machine Gun Kelly x Camila Cabello</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>Ariana Grande Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Clean Bandit Featuring Sean Paul &amp; Anne-Marie</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>DJ Snake Featuring Justin Bieber</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>21 Savage</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>J Balvin &amp; Willy William Featuring Beyonce</t>
+  </si>
+  <si>
+    <t>Migos</t>
+  </si>
+  <si>
+    <t>Yo Gotti Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Kodak Black</t>
+  </si>
+  <si>
+    <t>Post Malone Featuring 21 Savage</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
+  </si>
+  <si>
+    <t>twenty one pilots</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Amine</t>
+  </si>
+  <si>
+    <t>Ayo &amp; Teo</t>
+  </si>
+  <si>
+    <t>Zay Hilfigerrr &amp; Zayion McCall</t>
+  </si>
+  <si>
+    <t>Rae Sremmurd</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>Kesha</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Future</t>
+  </si>
+  <si>
+    <t>D.R.A.M. Featuring Lil Yachty</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Frank Ocean &amp; Migos</t>
+  </si>
+  <si>
+    <t>Kane Brown Featuring Lauren Alaina</t>
+  </si>
+  <si>
+    <t>Katy Perry Featuring Skip Marley</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Pharrell Williams, Katy Perry &amp; Big Sean</t>
+  </si>
+  <si>
+    <t>Jon Bellion</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Playboi Carti</t>
+  </si>
+  <si>
+    <t>SZA Featuring Travis Scott</t>
+  </si>
+  <si>
+    <t>A Boogie Wit da Hoodie Featuring Kodak Black</t>
+  </si>
+  <si>
+    <t>Hailee Steinfeld &amp; Grey Featuring Zedd</t>
+  </si>
+  <si>
+    <t>Gucci Mane Featuring Drake</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Jason Derulo Featuring Nicki Minaj &amp; Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Migos Featuring Gucci Mane</t>
+  </si>
+  <si>
+    <t>Harry Styles</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Marian Hill</t>
+  </si>
+  <si>
+    <t>Cheat Codes Featuring Demi Lovato</t>
+  </si>
+  <si>
+    <t>Gucci Mane Featuring Migos</t>
+  </si>
+  <si>
+    <t>Dustin Lynch</t>
+  </si>
+  <si>
+    <t>YFN Lucci Featuring PnB Rock</t>
+  </si>
+  <si>
+    <t>Camila Cabello Featuring Young Thug</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring SZA</t>
+  </si>
+  <si>
+    <t>blackbear</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Keith Urban Featuring Carrie Underwood</t>
   </si>
   <si>
     <t>Hey, hey, hey
@@ -109,12 +673,6 @@
 Lucky for you, that's what I like, that's what I like</t>
   </si>
   <si>
-    <t>Humble.</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar</t>
-  </si>
-  <si>
     <t>Nobody pray for me
 It's been that day for me
 Waaaaay (yeah, yeah!)Ayy, I remember syrup sandwiches and crime allowances
@@ -183,12 +741,6 @@
 Sit down (hol' up, hol' up, hol' up, hol' up)</t>
   </si>
   <si>
-    <t>Something Just Like This</t>
-  </si>
-  <si>
-    <t>The Chainsmokers &amp; Coldplay</t>
-  </si>
-  <si>
     <t>I've been reading books of old
 The legends, and the myths
 Achilles, and his goldHercules, and his gifts
@@ -253,18 +805,6 @@
 Oh, I want something just like this</t>
   </si>
   <si>
-    <t>Bad And Boujee</t>
-  </si>
-  <si>
-    <t>Migos Featuring Lil Uzi Vert</t>
-  </si>
-  <si>
-    <t>Closer</t>
-  </si>
-  <si>
-    <t>The Chainsmokers Featuring Halsey</t>
-  </si>
-  <si>
     <t>Hey, I was doing just fine before I met you
 I drink too much, and that's an issue, but I'm okay
 Hey, you tell your friends it was nice to meet themBut I hope I never see them again
@@ -324,12 +864,6 @@
 No, we ain't ever getting older</t>
   </si>
   <si>
-    <t>Body Like A Back Road</t>
-  </si>
-  <si>
-    <t>Sam Hunt</t>
-  </si>
-  <si>
     <t>Got a girl from the Southside
 Got braids in her hair
 First time I seen her walk byMan I 'Bout fell up out my chair
@@ -376,12 +910,6 @@
 (Body like a back road
 Could drive it with my eyes closed
 I know every curve like the back of my hand)</t>
-  </si>
-  <si>
-    <t>Believer</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
   </si>
   <si>
     <t>First things first
@@ -445,12 +973,6 @@
 My life, my love, my drive it came from...
 Pain!
 You made me a, you made me a believer, believer</t>
-  </si>
-  <si>
-    <t>Congratulations</t>
-  </si>
-  <si>
-    <t>Post Malone Featuring Quavo</t>
   </si>
   <si>
     <t>Mm-mmm
@@ -526,12 +1048,6 @@
 Hey, hey</t>
   </si>
   <si>
-    <t>Say You Won't Let Go</t>
-  </si>
-  <si>
-    <t>James Arthur</t>
-  </si>
-  <si>
     <t>I met you in the dark
 You lit me up
 You made me feel as thoughI was enough
@@ -593,12 +1109,6 @@
 Just say you won't let go
 Just say you won't let go
 Oh, just say you won't let go</t>
-  </si>
-  <si>
-    <t>I'm The One</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring Justin Bieber, Quavo, Chance The Rapper &amp; Lil Wayne</t>
   </si>
   <si>
     <t>We The Best Music
@@ -719,12 +1229,6 @@
 I am the one for you (I'm the one) yeah I'm the one</t>
   </si>
   <si>
-    <t>XO TOUR Llif3</t>
-  </si>
-  <si>
-    <t>Lil Uzi Vert</t>
-  </si>
-  <si>
     <t>Are you alright?, I'm alright, I'm quite alright and my money's right
 Ayy
 (Countin' them bands all way to the top, 'til they be fallin' over)(Countin' them bands, on my way to the top, 'til we fallin' over)
@@ -774,12 +1278,6 @@
 Push me to the edge, all my friends are dead
 Push me to the edge, all my friends are dead
 Push me to the edge</t>
-  </si>
-  <si>
-    <t>Mask Off</t>
-  </si>
-  <si>
-    <t>Future</t>
   </si>
   <si>
     <t>Call it how it is
@@ -848,12 +1346,6 @@
 Gas gone, never nod off
 (Cold chills, prison cells)
 (Oh my Lord, praise him be)</t>
-  </si>
-  <si>
-    <t>Unforgettable</t>
-  </si>
-  <si>
-    <t>French Montana Featuring Swae Lee</t>
   </si>
   <si>
     <t>It's not good enough for me
@@ -933,9 +1425,6 @@
 No, no, I won't tell nobody
 You're on your level too
 Tryna do what lovers do</t>
-  </si>
-  <si>
-    <t>24K Magic</t>
   </si>
   <si>
     <t>Tonight
@@ -1025,12 +1514,6 @@
 (24 karat magic, magic, magic, magic, magic)</t>
   </si>
   <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Zedd &amp; Alessia Cara</t>
-  </si>
-  <si>
     <t>Waiting for the time to pass you by
 Hope the winds of change will change your mind
 I could give a thousand reasons whyAnd I know you, and you've got too
@@ -1077,12 +1560,6 @@
 The clock is ticking, so stay
 All you have to do is stay
 Stay</t>
-  </si>
-  <si>
-    <t>Wild Thoughts</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring Rihanna &amp; Bryson Tiller</t>
   </si>
   <si>
     <t>Another one
@@ -1149,12 +1626,6 @@
 Wild, wild, wild
 Wild, wild, wild
 When I'm with you, all I get is wild thoughts</t>
-  </si>
-  <si>
-    <t>Black Beatles</t>
-  </si>
-  <si>
-    <t>Rae Sremmurd Featuring Gucci Mane</t>
   </si>
   <si>
     <t>Black beatles in the city be back immediately to confiscate the moneys
@@ -1231,12 +1702,6 @@
 They lose it when the DJ drops the needle</t>
   </si>
   <si>
-    <t>Starboy</t>
-  </si>
-  <si>
-    <t>The Weeknd Featuring Daft Punk</t>
-  </si>
-  <si>
     <t>I'm tryna put you in the worst mood, ah
 P1 cleaner than your church shoes, ah
 Milli point two just to hurt you, ahAll red Lamb' just to tease you, ah
@@ -1302,12 +1767,6 @@
 I'm a motherfucking Starboy</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Khalid</t>
-  </si>
-  <si>
     <t>Send me your location
 Let's focus on communicating
 'Cause I just need the time and place to come through(Place to come through)
@@ -1358,12 +1817,6 @@
 Do, do, do, do, do, do, do
 Do, do, do, do, do, do, do
 Oh, I don't need nothing else but you</t>
-  </si>
-  <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
   </si>
   <si>
     <t>Whoa-oh, hmm
@@ -1431,12 +1884,6 @@
 You're just making sure I'm never getting over you, oh</t>
   </si>
   <si>
-    <t>There's Nothing Holdin' Me Back</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
     <t>I wanna follow where she goes
 I think about her and she knows it
 I wanna let her take control'Cause everytime that she gets close, yeah
@@ -1485,12 +1932,6 @@
 There's nothin' holdin' me back
 I feel so free when you're with me, baby
 Baby, there's nothin' holdin' me back</t>
-  </si>
-  <si>
-    <t>Bodak Yellow (Money Moves)</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
   </si>
   <si>
     <t>KSR
@@ -1578,12 +2019,6 @@
 I'm a boss, you a worker, bitch, I make bloody moves...</t>
   </si>
   <si>
-    <t>Redbone</t>
-  </si>
-  <si>
-    <t>Childish Gambino</t>
-  </si>
-  <si>
     <t>Daylight
 I wake up feeling like you won't play right
 I used to know, but now that shit don't feel rightIt made me put away my pride
@@ -1638,24 +2073,6 @@
 Ooh, we get so scandalous
 But stay woke
 But stay woke</t>
-  </si>
-  <si>
-    <t>I Don't Wanna Live Forever (Fifty Shades Darker)</t>
-  </si>
-  <si>
-    <t>Zayn / Taylor Swift</t>
-  </si>
-  <si>
-    <t>It Ain't Me</t>
-  </si>
-  <si>
-    <t>Kygo x Selena Gomez</t>
-  </si>
-  <si>
-    <t>iSpy</t>
-  </si>
-  <si>
-    <t>KYLE Featuring Lil Yachty</t>
   </si>
   <si>
     <t>Man, fuck
@@ -1739,12 +2156,6 @@
 Oh I...</t>
   </si>
   <si>
-    <t>Issues</t>
-  </si>
-  <si>
-    <t>Julia Michaels</t>
-  </si>
-  <si>
     <t>I'm jealous, I'm over jealous
 When I'm down I get real down
 When I'm high I don't come downBut I get angry, baby, believe me
@@ -1790,12 +2201,6 @@
 And one of them is how bad I need you (you got 'em too)
 Yeah, I got issues (I got)
 And one of them is how bad I need you</t>
-  </si>
-  <si>
-    <t>Scars To Your Beautiful</t>
-  </si>
-  <si>
-    <t>Alessia Cara</t>
   </si>
   <si>
     <t>She just wants to be, beautiful
@@ -1864,12 +2269,6 @@
 The world could change its heart
 No scars to your beautiful
 We're stars and we're beautiful</t>
-  </si>
-  <si>
-    <t>1-800-273-8255</t>
-  </si>
-  <si>
-    <t>Logic Featuring Alessia Cara &amp; Khalid</t>
   </si>
   <si>
     <t>I've been on the low
@@ -1963,12 +2362,6 @@
 I don't even wanna die anymore</t>
   </si>
   <si>
-    <t>Slow Hands</t>
-  </si>
-  <si>
-    <t>Niall Horan</t>
-  </si>
-  <si>
     <t>We should take this back to my place
 That's what she said right to my face
 'Cause I want you bad, yeah I want you babyI've been thinking about it all day
@@ -2007,12 +2400,6 @@
 That I'm leaving here without you on me
 I, I know, yeah, I already know that there ain't no stopping
 Your plans and those slow hands</t>
-  </si>
-  <si>
-    <t>Love On The Brain</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>And you got me like oh
@@ -2073,9 +2460,6 @@
 I'm no good without you
 And I can't get enough
 Must be love on the brain</t>
-  </si>
-  <si>
-    <t>I Feel It Coming</t>
   </si>
   <si>
     <t>Tell me what you really like
@@ -2144,12 +2528,6 @@
 I feel it coming, babe
 I feel it coming, babe
 I feel it coming, babe</t>
-  </si>
-  <si>
-    <t>Bounce Back</t>
-  </si>
-  <si>
-    <t>Big Sean</t>
   </si>
   <si>
     <t>If Young Metro don't trust you I'ma shoot you
@@ -2238,12 +2616,6 @@
 Real one
 Real one
 Don</t>
-  </si>
-  <si>
-    <t>Strip That Down</t>
-  </si>
-  <si>
-    <t>Liam Payne Featuring Quavo</t>
   </si>
   <si>
     <t>Huncho
@@ -2335,12 +2707,6 @@
 Yeah, yeah, yeah, yeah</t>
   </si>
   <si>
-    <t>Fake Love</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
     <t>Yeah, yeah
 I've been down so long it look like up to meThey look up to me
 I got fake people showin' fake love to me
@@ -2404,12 +2770,6 @@
 Straight up to my face
 Straight up to my face
 Skrrt</t>
-  </si>
-  <si>
-    <t>Don't Wanna Know</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Kendrick Lamar</t>
   </si>
   <si>
     <t>I don't wanna know, know, know, know
@@ -2483,12 +2843,6 @@
 I don't wanna know</t>
   </si>
   <si>
-    <t>Look What You Made Me Do</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>I don't like your little games
 Don't like your tilted stage
 The role you made me play of the foolNo, I don't like you
@@ -2559,12 +2913,6 @@
 Look what you just made me do</t>
   </si>
   <si>
-    <t>Castle On The Hill</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
     <t>When I was six years old, I broke my leg
 I was running from my brother and his friends
 And tasted the sweet perfume of the mountain grass I rolled downI was younger then, take me back to when I
@@ -2609,18 +2957,6 @@
 When we watched the sunset over the castle on the hill
 Over the castle on the hill
 Over the castle on the hill</t>
-  </si>
-  <si>
-    <t>Bad Things</t>
-  </si>
-  <si>
-    <t>Machine Gun Kelly x Camila Cabello</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>The Chainsmokers</t>
   </si>
   <si>
     <t>We were staying in Paris
@@ -2682,12 +3018,6 @@
 If we go down
 Let's show them we are better
 Let's show them we are better</t>
-  </si>
-  <si>
-    <t>Side To Side</t>
-  </si>
-  <si>
-    <t>Ariana Grande Featuring Nicki Minaj</t>
   </si>
   <si>
     <t>I've been here all night (Ariana)
@@ -2752,12 +3082,6 @@
 Wrist icicle, ride dick bicycle
 Come through yo, get you this type of blow
 If you wanna menage I got a tricycle</t>
-  </si>
-  <si>
-    <t>Rockabye</t>
-  </si>
-  <si>
-    <t>Clean Bandit Featuring Sean Paul &amp; Anne-Marie</t>
   </si>
   <si>
     <t>Call it love and devotion
@@ -2862,12 +3186,6 @@
 Angels surround you, just dry your eye</t>
   </si>
   <si>
-    <t>Feel It Still</t>
-  </si>
-  <si>
-    <t>Portugal. The Man</t>
-  </si>
-  <si>
     <t>Can't keep my hands to myself
 Think I'll dust 'em off, put 'em back up on the shelf
 In case my little baby girl is in needAm I coming out of left field?
@@ -2913,12 +3231,6 @@
 Let me kick it like it's 1986, now
 Might be over now, but I feel it still
 Might've had your fill, but I feel it still</t>
-  </si>
-  <si>
-    <t>Let Me Love You</t>
-  </si>
-  <si>
-    <t>DJ Snake Featuring Justin Bieber</t>
   </si>
   <si>
     <t>I used to believe
@@ -2978,12 +3290,6 @@
 I won't give up, nah-nah-nah
 Let me love you
 Let me love you</t>
-  </si>
-  <si>
-    <t>Sorry Not Sorry</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
   </si>
   <si>
     <t>Payback is a bad bitch
@@ -3048,12 +3354,6 @@
 Yeah, I'm on fire and I know that it burns
 Payback is a bad bitch
 And baby, I'm the baddest, I'm the baddest, I'm the baddest</t>
-  </si>
-  <si>
-    <t>Bank Account</t>
-  </si>
-  <si>
-    <t>21 Savage</t>
   </si>
   <si>
     <t>Ooh, ooh, ooh, ow, ow, ow
@@ -3140,12 +3440,6 @@
 The streets raised me, I'm a whole bastard</t>
   </si>
   <si>
-    <t>Can't Stop The Feeling!</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
     <t>I got this feeling inside my bones
 It goes electric, wavey when I turn it on
 All through my city, all through my homeWe're flying up, no ceiling, when we in our zone
@@ -3222,12 +3516,6 @@
 Got this feeling in my body, come on</t>
   </si>
   <si>
-    <t>Mi Gente</t>
-  </si>
-  <si>
-    <t>J Balvin &amp; Willy William Featuring Beyonce</t>
-  </si>
-  <si>
     <t>Si el ritmo te lleva a mover la cabeza ya empezamos cómo es
 Mi música no discrimina a nadie así que vamos a romperCon lo mío todos se mueven
 La fiesta la llevo en mis genes
@@ -3292,9 +3580,6 @@
 Uh huh... uh huh... uh huh</t>
   </si>
   <si>
-    <t>Thunder</t>
-  </si>
-  <si>
     <t>Just a young gun with a quick fuse
 I was uptight, wanna let loose
 I was dreaming of bigger thingsAnd wanna leave my own life behind
@@ -3349,12 +3634,6 @@
 Thun-thun-thunder, thunder
 Thunder, thunder, thunder
 Thun-thun-thunder, thunder</t>
-  </si>
-  <si>
-    <t>T-Shirt</t>
-  </si>
-  <si>
-    <t>Migos</t>
   </si>
   <si>
     <t>Nard &amp; B
@@ -3421,12 +3700,6 @@
 Mama told me (Ay) not to sell work (mama)
 Seventeen five, same color T-shirt (Yeah)
 Mama told you, mama told you</t>
-  </si>
-  <si>
-    <t>Rake It Up</t>
-  </si>
-  <si>
-    <t>Yo Gotti Featuring Nicki Minaj</t>
   </si>
   <si>
     <t>Ear Drummers
@@ -3513,9 +3786,6 @@
 Fuck it up, fuck it up, rake it up, rake it up (fuck it up, rake it up)</t>
   </si>
   <si>
-    <t>Mercy</t>
-  </si>
-  <si>
     <t>You've got a hold on me
 Don't even know your power
 I stand a hundred feetBut I fall when I'm around you
@@ -3567,12 +3837,6 @@
 I'm begging you, begging you, please, baby
 I'm begging you for mercy, mercy...
 Oh, I'm begging you, I'm begging you, yeah</t>
-  </si>
-  <si>
-    <t>Tunnel Vision</t>
-  </si>
-  <si>
-    <t>Kodak Black</t>
   </si>
   <si>
     <t>Gleeee!
@@ -3647,12 +3911,6 @@
 And I ain't tryna miss out on these millions</t>
   </si>
   <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>Post Malone Featuring 21 Savage</t>
-  </si>
-  <si>
     <t>Hahahahaha
 Tank God
 Ayy, ayyI've been fuckin' hoes and poppin' pillies
@@ -3721,12 +3979,6 @@
 Feel just like a...</t>
   </si>
   <si>
-    <t>In Case You Didn't Know</t>
-  </si>
-  <si>
-    <t>Brett Young</t>
-  </si>
-  <si>
     <t>I can't count the times
 Almost said what's on my mind
 But I didn'tJust the other day
@@ -3772,12 +4024,6 @@
 In case you didn't know</t>
   </si>
   <si>
-    <t>Heathens</t>
-  </si>
-  <si>
-    <t>twenty one pilots</t>
-  </si>
-  <si>
     <t>All my friends are heathens, take it slow
 Wait for them to ask you who you know
 Please don't make any sudden movesYou don't know the half of the abuse
@@ -3820,12 +4066,6 @@
 I tried to warn you just to stay away
 And now they're outside ready to bust
 It looks like you might be one of us</t>
-  </si>
-  <si>
-    <t>Now Or Never</t>
-  </si>
-  <si>
-    <t>Halsey</t>
   </si>
   <si>
     <t>I don't wanna fight right now
@@ -3901,12 +4141,6 @@
 Hey, hey
 I want you to love me now, now, now, now, now, now
 Now or never</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>Amine</t>
   </si>
   <si>
     <t>Listen man
@@ -3988,12 +4222,6 @@
 Bad thang, thang, bad, bad, bad, b-b-bad</t>
   </si>
   <si>
-    <t>Rolex</t>
-  </si>
-  <si>
-    <t>Ayo &amp; Teo</t>
-  </si>
-  <si>
     <t>I just want a Rollie, Rollie, Rollie with a dab of ranch
 I already got some designer to hold up my pants
 I just want some ice on my wrist so I look better when I danceHave you lookin' at it, put you in a trance
@@ -4062,9 +4290,6 @@
 I just want a Rollie
 I just want a
 I just want a Rollie</t>
-  </si>
-  <si>
-    <t>DNA.</t>
   </si>
   <si>
     <t>I got, I got, I got, I got
@@ -4147,12 +4372,6 @@
 Sex, money, murder, our DNA</t>
   </si>
   <si>
-    <t>Juju On That Beat (TZ Anthem)</t>
-  </si>
-  <si>
-    <t>Zay Hilfigerrr &amp; Zayion McCall</t>
-  </si>
-  <si>
     <t>Do that one dance baby
 That, that one dance
 Yeah, ohYou don't know how to do that?
@@ -4224,12 +4443,6 @@
 You your daddy's son</t>
   </si>
   <si>
-    <t>Swang</t>
-  </si>
-  <si>
-    <t>Rae Sremmurd</t>
-  </si>
-  <si>
     <t>Um, it's nasty
 Uh, it's nasty
 UhmmKnow some young niggas like to swang, uhmm
@@ -4282,9 +4495,6 @@
 When I die can't take it to the grave</t>
   </si>
   <si>
-    <t>Passionfruit</t>
-  </si>
-  <si>
     <t>Hold on, hold on, fuck that, fuck that shit
 Hold on, I got to start this mothafuckin' record over again, wait a minute
 Fuck that shit, still on this mothafuckin' recordI'ma play this mothafucka for y'all
@@ -4324,18 +4534,6 @@
 Um, trying to think of the right thing to say</t>
   </si>
   <si>
-    <t>Loyalty.</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar Featuring Rihanna</t>
-  </si>
-  <si>
-    <t>Praying</t>
-  </si>
-  <si>
-    <t>Kesha</t>
-  </si>
-  <si>
     <t>Well, you almost had me fooled
 Told me that I was nothing without you
 Oh, but after everything you've doneI can thank you for how strong I have become
@@ -4371,12 +4569,6 @@
 I hope your soul is changin', changin'
 I hope you find your peace
 Falling on your knees, prayin'</t>
-  </si>
-  <si>
-    <t>Goosebumps</t>
-  </si>
-  <si>
-    <t>Travis Scott</t>
   </si>
   <si>
     <t>Yeah
@@ -4445,12 +4637,6 @@
 I get those goosebumps every time, yeah, when you're not around
 When you throw that to the side, yeah
 I get those goosebumps every time</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Future</t>
   </si>
   <si>
     <t>Cold enough to chill my bones
@@ -4533,12 +4719,6 @@
 I don't understand why you're so cold</t>
   </si>
   <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>D.R.A.M. Featuring Lil Yachty</t>
-  </si>
-  <si>
     <t>Ain't no tellin' what I'm finna be on, ayy, ayy
 I'm beyond all that fuck shit, heyHey, lil' mama, would you like to be my sunshine?
 Nigga, touch my gang, we gon' turn this shit to Columbine
@@ -4609,12 +4789,6 @@
 I'm a dirty dog, I did it sleazily (yeah)</t>
   </si>
   <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Frank Ocean &amp; Migos</t>
-  </si>
-  <si>
     <t>I might
 Empty my bank account
 And buy that boy with a pipeBuy that boy with a pipe
@@ -4680,12 +4854,6 @@
 (Do you slide on all your nights like this?)
 Buy that boy with a pipe
 I might</t>
-  </si>
-  <si>
-    <t>What Ifs</t>
-  </si>
-  <si>
-    <t>Kane Brown Featuring Lauren Alaina</t>
   </si>
   <si>
     <t>You say what if I hurt you
@@ -4762,12 +4930,6 @@
 Away
 (Away)
 What if?</t>
-  </si>
-  <si>
-    <t>Chained To The Rhythm</t>
-  </si>
-  <si>
-    <t>Katy Perry Featuring Skip Marley</t>
   </si>
   <si>
     <t>Are we crazy?
@@ -4847,12 +5009,6 @@
 It goes on, and on, and on (on, and on, and on)</t>
   </si>
   <si>
-    <t>Feels</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Pharrell Williams, Katy Perry &amp; Big Sean</t>
-  </si>
-  <si>
     <t>Ah, yeah
 Hey!Now, nothing ever last forever, no
 One minute you're here and the next you're gone
@@ -4916,12 +5072,6 @@
 Feels with me</t>
   </si>
   <si>
-    <t>All Time Low</t>
-  </si>
-  <si>
-    <t>Jon Bellion</t>
-  </si>
-  <si>
     <t>I, was the knight in shining armor in your movie
 Would put your lips on mine and love the after taste
 NowI'm a ghost I call your name
@@ -4970,12 +5120,6 @@
 Low Low Low
 Low Low Low
 Low Low Low</t>
-  </si>
-  <si>
-    <t>Hurricane</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
   </si>
   <si>
     <t>Hadn't had a good time
@@ -5034,12 +5178,6 @@
 Hit me like a hurricane</t>
   </si>
   <si>
-    <t>Too Good At Goodbyes</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>You must think that I'm stupid
 You must think that I'm a fool
 You must think that I'm new to thisBut I have seen this all before
@@ -5090,9 +5228,6 @@
 And every time you walk out, the less I love you
 Baby, we don't stand a chance, it's sad but it's true
 I'm way too good at goodbyes</t>
-  </si>
-  <si>
-    <t>Young Dumb &amp; Broke</t>
   </si>
   <si>
     <t>So you're still thinking of me
@@ -5153,12 +5288,6 @@
 Ya-da-da da-da da-da
 Ya-da-da da-da da-da-da
 Young, dumb, broke high school kids</t>
-  </si>
-  <si>
-    <t>Magnolia</t>
-  </si>
-  <si>
-    <t>Playboi Carti</t>
   </si>
   <si>
     <t>Yo, Pierre You wanna come out here?
@@ -5222,12 +5351,6 @@
 Use to sell rerock, running from the cops
 Shooting at the opps
 Yo, Pierre You wanna come out here?</t>
-  </si>
-  <si>
-    <t>Love Galore</t>
-  </si>
-  <si>
-    <t>SZA Featuring Travis Scott</t>
   </si>
   <si>
     <t>I need, I need
@@ -5315,12 +5438,6 @@
 They think you stupid, you know what I'm saying?</t>
   </si>
   <si>
-    <t>Drowning</t>
-  </si>
-  <si>
-    <t>A Boogie Wit da Hoodie Featuring Kodak Black</t>
-  </si>
-  <si>
     <t>I'm drownin'
 I'm drownin'
 I'm drownin'I'm drownin'
@@ -5378,12 +5495,6 @@
 I'm drownin'</t>
   </si>
   <si>
-    <t>Starving</t>
-  </si>
-  <si>
-    <t>Hailee Steinfeld &amp; Grey Featuring Zedd</t>
-  </si>
-  <si>
     <t>You know just what to say, things that scare me
 I should just walk away, but I can't move my feet
 The more that I know you, the more that I want toSomething inside me's changed
@@ -5413,18 +5524,6 @@
 The more that I know you, the more that I want to
 Something inside me's changed
 I was so much younger yesterday</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Gucci Mane Featuring Drake</t>
-  </si>
-  <si>
-    <t>What About Us</t>
-  </si>
-  <si>
-    <t>P!nk</t>
   </si>
   <si>
     <t>La-da-da-da-da, la-da-da-da-da
@@ -5478,12 +5577,6 @@
 What about us?
 What about us?
 What about us?</t>
-  </si>
-  <si>
-    <t>Swalla</t>
-  </si>
-  <si>
-    <t>Jason Derulo Featuring Nicki Minaj &amp; Ty Dolla $ign</t>
   </si>
   <si>
     <t>Drank
@@ -5561,12 +5654,6 @@
 Swalla-la-la
 My freaky, freaky gyal
 Derulo</t>
-  </si>
-  <si>
-    <t>Slippery</t>
-  </si>
-  <si>
-    <t>Migos Featuring Gucci Mane</t>
   </si>
   <si>
     <t>Pop a perky just to start up (pop it, pop it pop it)
@@ -5684,12 +5771,6 @@
 Hey, hey, hey</t>
   </si>
   <si>
-    <t>Sign Of The Times</t>
-  </si>
-  <si>
-    <t>Harry Styles</t>
-  </si>
-  <si>
     <t>Just stop your crying, it's a sign of the times
 Welcome to the final show
 Hope you're wearing your best clothesYou can't bribe the door on your way to the sky
@@ -5748,12 +5829,6 @@
 We got to—we got to—away</t>
   </si>
   <si>
-    <t>Water Under The Bridge</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>If you're not the one for me
 Then how come I can bring you to your knees?
 If you're not the one for meWhy do I hate the idea of being free?
@@ -5812,12 +5887,6 @@
 Say that our love ain't water under the bridge</t>
   </si>
   <si>
-    <t>Malibu</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
-  </si>
-  <si>
     <t>I never came to the beach
 Or stood by the ocean
 I never sat by the shoreUnder the sun with my feet in the sand
@@ -5869,12 +5938,6 @@
 It's a brand new start
 A dream come true
 In Malibu</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Marian Hill</t>
   </si>
   <si>
     <t>Didn't even really wanna go
@@ -5937,12 +6000,6 @@
 Down?</t>
   </si>
   <si>
-    <t>No Promises</t>
-  </si>
-  <si>
-    <t>Cheat Codes Featuring Demi Lovato</t>
-  </si>
-  <si>
     <t>Cutting me up like a knife
 And I feel it, deep in my bones
 Kicking a habit I loveEven harder, you oughta know
@@ -5987,9 +6044,6 @@
 Promise me no promises</t>
   </si>
   <si>
-    <t>Treat You Better</t>
-  </si>
-  <si>
     <t>I won't lie to you
 I know he's just not right for you
 And you can tell me if I'm offBut I see it on your face
@@ -6032,12 +6086,6 @@
 Better than he can
 Better than he can
 Better than he can</t>
-  </si>
-  <si>
-    <t>I Get The Bag</t>
-  </si>
-  <si>
-    <t>Gucci Mane Featuring Migos</t>
   </si>
   <si>
     <t>Shine
@@ -6150,12 +6198,6 @@
 They say the dope on fleek (yep)</t>
   </si>
   <si>
-    <t>Small Town Boy</t>
-  </si>
-  <si>
-    <t>Dustin Lynch</t>
-  </si>
-  <si>
     <t>I'm a dirt road
 In the headlights
 I'm a mama's boyI'm a fist fight
@@ -6229,12 +6271,6 @@
 Yeah, she loves a small town boy like me</t>
   </si>
   <si>
-    <t>Everyday We Lit</t>
-  </si>
-  <si>
-    <t>YFN Lucci Featuring PnB Rock</t>
-  </si>
-  <si>
     <t>I came up from nothing nigga you can't tell me shit
 Did it on my own, check out my neck check out my wrist
 I swear I ain't never expected it to be like thisNow a nigga gettin' rich I swear everyday we lit
@@ -6295,12 +6331,6 @@
 Everyday we lit uh
 Everyday we lit
 Everyday we lit uh</t>
-  </si>
-  <si>
-    <t>Havana</t>
-  </si>
-  <si>
-    <t>Camila Cabello Featuring Young Thug</t>
   </si>
   <si>
     <t>Havana, ooh na-na (ayy) (Hey)
@@ -6369,12 +6399,6 @@
 Oh, na-na-na (no, no, no, take me back)
 Oh, na-na-na
 Havana, ooh na-na</t>
-  </si>
-  <si>
-    <t>What Lovers Do</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring SZA</t>
   </si>
   <si>
     <t>Say, say, say, hey, hey, now, baby
@@ -6449,12 +6473,6 @@
 Tryna' do what lovers do (ooh)</t>
   </si>
   <si>
-    <t>Do Re Mi</t>
-  </si>
-  <si>
-    <t>blackbear</t>
-  </si>
-  <si>
     <t>Do, re, mi, fa, so
 (Yeah, yeah, yeah, ohh)
 Do, re, mi, fa, so(Yeah, yeah, yeah)
@@ -6516,12 +6534,6 @@
 So send the X and O's on another note, I'm ghost</t>
   </si>
   <si>
-    <t>Look At Me!</t>
-  </si>
-  <si>
-    <t>XXXTENTACION</t>
-  </si>
-  <si>
     <t>Yeah, ay
 Yeah, ay ay ay
 Yeah, yeahYeah, ay
@@ -6569,12 +6581,6 @@
 Look at me, fuck on me
 Look at me, fuck on me
 Look at me, yeah</t>
-  </si>
-  <si>
-    <t>The Fighter</t>
-  </si>
-  <si>
-    <t>Keith Urban Featuring Carrie Underwood</t>
   </si>
   <si>
     <t>I know he hurt you
@@ -6641,16 +6647,485 @@
 I'll hold you tighter
 When they're tryna get to you, baby I'll be the fighter</t>
   </si>
+  <si>
+    <t>Ay, ¡Fonsi! ¡D.Y.!
+Ohhh, oh, no, oh, no, oh
+¡Hey, yeah!
+Dididiri Daddy, go!
+Sí, sabes que ya llevo un rato mirándote
+Tengo que bailar contigo hoy
+(¡D.Y.!) Vi que tu mirada ya estaba llamándome
+Muéstrame el camino que yo voy
+¡Oh!
+Tú, tú eres el imán y yo soy el metal
+Me voy acercando y voy armando el plan
+Sólo con pensarlo se acelera el pulso (¡Oh, yeah!)
+Ya, ya me está gustando más de lo normal
+Todos mis sentidos van pidiendo más
+Esto hay que tomarlo sin ningún apuro
+Despacito
+Quiero respirar tu cuello despacito
+Deja que te diga cosas al oído
+Para que te acuerdes si no estás conmigo
+Despacito
+Quiero desnudarte a besos despacito
+Firmo en las paredes de tu laberinto
+Y hacer de tu cuerpo todo un manuscrito
+(Sube, sube, sube, sube, sube)
+Quiero ver bailar tu pelo, quiero ser tu ritmo (Woah, woah)
+Que le enseñes a mi boca (Woah, woah)
+Tus lugares favoritos (Favorito, favorito, baby)
+Déjame sobrepasar tus zonas de peligro (Woah, woah)
+Hasta provocar tus gritos (Woah, woah)
+Y que olvides tu apellido
+Si te pido un beso, ven, dámelo, yo sé que estás pensándolo
+Llevo tiempo intentándolo, mami, esto es dando y dándolo
+Sabes que tu corazón conmigo te hace bang-bang
+Sabes que esa beba está buscando de mi bang-bang
+Ven, prueba de mi boca para ver cómo te sabe
+Quiero, quiero, quiero ver cuánto amor a ti te cabe
+Yo no tengo prisa, yo me quiero dar el viaje
+Empecemos lento, después salvaje
+Pasito a pasito, suave suavecito
+Nos vamos pegando, poquito a poquito
+Cuando tú me besas con esa destreza
+Veo que eres malicia con delicadeza
+Pasito a pasito, suave suavecito
+Nos vamos pegando, poquito a poquito
+Y es que esa belleza es un rompecabezas
+Pero pa' montarlo aquí tengo la pieza
+¡Oye!
+Despacito
+Quiero respirar tu cuello despacito
+Deja que te diga cosas al oído
+Para que te acuerdes si no estás conmigo
+Despacito
+Quiero desnudarte a besos despacito
+Firmo en las paredes de tu laberinto
+Y hacer de tu cuerpo todo un manuscrito
+(Sube, sube, sube, sube, sube)
+Quiero ver bailar tu pelo, quiero ser tu ritmo (Woah, woah)
+Que le enseñes a mi boca (Woah, woah)
+Tus lugares favoritos (Favorito, favorito, baby)
+Déjame sobrepasar tus zonas de peligro (Woah, woah)
+Hasta provocar tus gritos (Woah, woah)
+Y que olvides tu apellido
+Despacito
+Vamo' a hacerlo en una playa en Puerto Rico
+Hasta que las olas griten "¡Ay, Bendito!"
+Para que mi sello se quede contigo
+¡Báilalo!
+Pasito a pasito, suave suavecito
+Nos vamos pegando, poquito a poquito
+Que le enseñes a mi boca
+Tus lugares favoritos
+(Favorito, favorito, baby)
+Pasito a pasito, suave suavecito
+Nos vamos pegando, poquito a poquito
+Hasta provocar tus gritos (Fonsi)
+Y que olvides tu apellido (D.Y.)
+Despacito</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If Young Metro don't trust you I'm gon' shoot ya'
+Hey!
+Raindrop, drop top (drop top)
+Smokin' on - in the hotbox (cookie)
+F-n' on your b-h she a thot, thot (thot)
+Cookin' up cook in the crockpot (pot)
+We came from nothin' to somethin' (hey)
+I don't trust nobody (nobody)
+Call up the gang, and they come and get you (gang)
+Cry me a river, give you a tissue (hey)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (blaow)
+My - is savage, ruthless (savage)
+We got 30's and 100 rounds too (grrah)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (dope)
+My - is savage, ruthless (hey)
+We got 30's and 100 rounds too (glah)
+Offset, whoo, whoo, whoo, whoo, whoo!
+Rackings on rackings, got back-ends on back-ends
+I'm ridin' around in a coupe (coupe)
+I take your-right from you (You)
+- I'm a dog, roof (grr)
+Beat the - walls loose (hey)
+Hop in the frog, whoo (skrt)
+I tell that - to come comfort me (comfort me)
+I swear these - is under me (hey)
+They hate and the devil keep jumpin' me (jumpin' me)
+Bankrolls on me keep me company (cash)
+Aye, we did the most
+Yeah, pull up in Ghosts (whoo)
+Yeah, my diamonds a choker (glah)
+Holdin' the fire with no holster (blaow)
+Rick the Ruler, diamonds cooler (cooler)
+This a Rollie, not a Muller (hey)
+Dabbin' on 'em like the usual (dab)
+Magic with the brick, do voodoo (magic)
+Courtside with a bad -
+Then I send the - through Uber (go)
+I'm young and rich and plus I'm bougie (hey)
+I'm not stupid so I keep the Uzi (rrah)
+Rackings on rackings, got back-ends on back-ends
+So my money makin' my back ache
+You - got a low acc rate (acc)
+We from the Nawf, yeah, dat way (nawf)
+Fat - in the ashtray (cookie)
+Two - just national smash day (smash)
+Hop in the Lamb, have a drag race (skrt)
+I let them birds take a bath, bathe (brr)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (blaow)
+My - is savage, ruthless (savage)
+We got 30's and 100 rounds too (grrah)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (dope)
+My - is savage, ruthless (hey)
+We got 30's and 100 rounds too (glah)
+Pour a four, I'm droppin' muddy
+Outer space, Kid Cudi (drank)
+Introduce me to your - as wifey and we know she -
+Broke a brick down, nutted butted, now that - duckin'
+Don't move too fast I might shoot you (huh?)
+Draco bad and boujee (draco)
+I'm always hangin' with shooters (brrah)
+Might be posted somewhere secluded (private)
+Still be playin' with pots and pans, call me Quavo Ratatouille
+Run with that sack, call me Boobie (run with it)
+When I'm on stage show me -(ay)
+Ice on my neck, I'm the coolest (ice)
+Hop out the suicide with the Uzi (pew-pew-pew)
+I pull up, I pull up, I pull up
+I hop out with all of the, all of the good luck (skrrt)
+I'm cookin', I'm cookin', I'm whippin'
+I'm whippin' into a rock up, let it lock up (lock up)
+I gave her 10 racks
+I told her go shoppin' and spend it all at the pop up (ten)
+These - they f-k and suck d-k
+And they bustin' for Instagram, get your clout up
+Uh, yeah, dat way, float on the track like a Segway (go)
+Yeah, dat way, I used to trap by the Subway (trappin')
+Yeah, dat way, young, young trap with the AK (rrrah)
+Yeah, dat way, big, big, get it though, Macy Gray (hey)
+Raindrop, drop tops (drop top)
+Smokin' on -in the hotbox (cookie)
+F-n' on your - she a thot, thot (thot)
+Cookin' up - in the crockpot (pot)
+We came from nothin' to somethin' (hey)
+I don't trust nobody grip the trigger (nobody)
+Call up the gang, and they come and get you (gang)
+Cry me a river, give you a tissue (hey)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (blaow)
+My - is savage, ruthless (savage)
+We got 30's and 100 rounds too (grrah)
+My - is bad and boujee (bad)
+Cookin' up - with an Uzi (dope)
+My - is savage, ruthless (hey)
+We got 30's and 100 rounds too (glah)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Been sitting eyes wide open behind these four walls, hoping you'd call
+It's just a cruel existence like there's no point hoping at all
+Baby, baby, I feel crazy
+Up all night, all night and every day
+Give me something, oh, but you say nothing
+What is happening to me?
+I don't wanna live forever, 'cause I know I'll be living in vain
+And I don't wanna fit wherever
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I'm sitting eyes wide open, and I got one thing stuck in my mind
+Wondering if I dodged a bullet or just lost the love of my life, oh
+Baby, baby, I feel crazy
+Up all night, all night and every day
+I gave you something, but you gave me nothing
+What is happening to me?
+I don't wanna live forever, 'cause I know I'll be living in vain
+And I don't wanna fit (fit, baby) wherever (wherever)
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I've been looking sad in all the nicest places
+Baby, baby, I feel crazy
+I see you around in all these empty faces
+Up all night, all night and every day
+I've been looking sad in all the nicest places
+Give me something, oh, but you say nothing
+Now I'm in a cab, I tell 'em where your place is
+What is happening to me?
+I don't wanna live forever, 'cause I know I'll be living in vain
+And I don't wanna fit wherever
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+I just wanna keep calling your name until you come back home
+Until you come back home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad Things</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am I out of my head?
+Am I out of my mind?
+If you only knew the bad things I like
+Don't think that I can explain it
+What can I say, it's complicated
+Don't matter what you say
+Don't matter what you do
+I only wanna do bad things to you
+So good, that you can't explain it
+What can I say, it's complicated
+Nothing's that bad
+If it feels good
+So you come back
+Like I knew you would
+And we're both wild
+And the night's young
+And you're my drug
+Breathe you in 'til my face numb
+Drop it down to that bass drum
+I got what you dream about
+Nails scratchin' my back tatt
+Eyes closed while you scream out
+And you keep me in with those hips
+While my teeth sink in those lips
+While your body's giving me life
+And you suffocate in my kiss
+Then you said
+I want you forever
+Even when we're not together
+Scars on my body so I can take you wherever
+I want you forever
+Even when we're not together
+Scars on my body I can look at you whenever
+Am I out of my head?
+Am I out of my mind?
+If you only knew the bad things I like
+Don't think that I can explain it
+What can I say, it's complicated
+Don't matter what you say
+Don't matter what you do
+I only wanna do bad things to you
+So good, that you can't explain it
+What can I say, it's complicated
+I can't explain it
+I love the pain
+And I love the way your breath
+Numbs me like novacaine
+And we are
+Always high
+Keep it strange
+Okay, yeah, I'm insane
+But you the same
+Let me paint the picture
+Couch by the kitchen
+Nothin' but your heels on
+Losin' our religion
+You're my pretty little vixen
+And I'm the voice inside your head
+That keeps telling you to listen to all the bad things I say
+And you said
+I want you forever
+Even when we're not together
+Scars on my body so I can take you wherever
+I want you forever
+Even when we're not together
+Scars on my body I can look at you whenever
+Am I out of my head?
+Am I out of my mind?
+If you only knew the bad things I like
+Don't think that I can explain it
+What can I say, it's complicated
+Don't matter what you say
+Don't matter what you do
+I only wanna do bad things to you
+So good, that you can't explain it
+What can I say, it's complicated
+The way we love, is so unique
+And when we touch, I'm shivering
+And no one has to get it
+Just you and me
+Cause we're just living
+Between the sheets
+I want you forever
+Even when we're not together
+Scars on my body so I can take you wherever
+I want you forever
+Even when we're not together
+Scars on my body I can look at you whenever
+Am I out of my head?
+Am I out of my mind?
+If you only knew the bad things I like
+Don't think that I can explain it
+What can I say, it's complicated
+Don't matter what you say
+Don't matter what you do
+I only wanna do bad things to you
+So good, that you can't explain it
+What can I say, it's complicated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said I'm geeked and I'm fired up (Fired, fire)
+All I want tonight just get high up (High, high, high)
+Girl, you look so good, it's to die for (Die for)
+Ooh that pussy good, it's to die for (On fire)
+It's a secret society
+All we ask is trust
+(All we ask is trust)
+All we got is us
+Loyalty, loyalty, loyalty
+Loyalty, loyalty, loyalty
+Kung Fu Kenny, now
+My resume is real enough for two millenniums
+A better way to make a wave, stop defendin' them
+I meditate and moderate all of my wins again
+I'm hangin' on the fence again
+I'm always on your mind
+I put my lyric and my lifeline on the line
+And ain't no limit when I might shine, might grind
+You rollin' with it at the right time, right now
+(Only for the dollar sign)
+Bad gyal RiRi, now
+Swerve, swerve, swerve, swerve, deeper now
+On your pulse like it's EDM
+Gas in the bitch like it's premium
+Haul ass on a bitch all in the fast lane
+Been a bad bitch way before any cash came
+I'm established
+Hundred carats on my name, run the atlas
+I'm a natural, I'm alright
+I'm a savage, I'm an asshole, I'm a king
+Shimmy-yeah, shimmy-yeah, shimmy-yeah, rock
+You can tell your nigga he can meet me outside (Yeah)
+You can babysit him when I leave him outside
+Ain't no other love like the one I know
+I done been down so long, lost hope
+I done came down so hard I slowed
+Honesty forever, all a real nigga want
+I said I'm geeked and I'm fired up (Fired, fire)
+All I want is tonight is just to get high up (Yeah)
+(All I want is, all I want is)
+Loyalty, loyalty, loyalty
+Loyalty, loyalty, loyalty
+10-4, no switching sides
+Feel somethin' wrong
+You acting shifty, you don't ride
+With me no more, I need
+Loyalty, loyalty, loyalty
+Loyalty, loyalty, loyalty
+Tell me who you loyal to
+Is it money? Is it fame? Is it weed? Is it drink?
+Is it comin' down with the loud pipes and the rain?
+Big chillin', only for the power in your name
+Tell me who you loyal to
+Is it love for the streets when the lights get dark?
+Is it unconditional when the 'Rari don't start?
+Tell me when your loyalty is comin' from the heart
+Tell me who you loyal to
+Do it start with your women or your man? (Mmm)
+Do it end with your family and friends? (Mmm)
+Or you're loyal to yourself in advance?
+I said, tell me who you loyal to
+Is it anybody that you would lie for?
+Anybody you would slide for?
+Anybody you would die for?
+That's what God for
+I said I'm geeked and I'm fired up (Fired, fire)
+All I want tonight is just to get high up
+(All I want is, all I want is)
+Loyalty, loyalty, loyalty
+Loyalty, loyalty, loyalty
+10-4, no switching sides
+Feel somethin' wrong
+You acting shifty, you don't ride
+With me no more, I need
+Loyalty, loyalty, loyalty
+Loyalty, loyalty, loyalty
+It's so hard to be humble
+It's so hard to be
+Lord knows is I'm trying
+Lord knows is I'm dying, baby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southside
+If Young Metro don't trust you, I'm gon' shoot you
+I got so many felonies I might can't never go to Canada
+But Drake said he gon' pull some strings
+So let me check my calendar
+I just popped one of them one what-you-call-its
+And it boosted my stamina
+Now I'm fucking her on the banister
+Guess I just East Atlanta'd her
+I'm in an all red drop tarantula
+Fuck a Challenger
+Damn these hoes ain't got no manners bruh
+Where's the manager?
+I keep throwing rubber bandies up
+Ho pull your panties up
+Cause you fuck like a granny fuck
+You're just an amateur
+This petite Philipe gon' make this crooked judge
+Try throw the book at me
+I look like half a million worth of heroin
+When she look at me
+But you ain't gotta fuck with me my nig
+But you're stuck with me
+But how you called the cops on me my nig?
+You grew up with me
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now, got me talking about my life
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now and I need ya in my life
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now
+Yeah, I'm both
+Yeah, I had a drink, yeah I smoked
+Yeah, you think I need you, but I don't
+Just left out Dubai with all my folks
+Open water, my location is remote
+Shout out Yachty but this ain't a lil boat
+This some shit I wrote up back when I was broke
+See the power of the mind is not a joke
+Man, I said that I would do it and I did
+Used to get leftovers out the fridge
+Nobody was famous where I lived
+Till I got it jumping at the crib
+Took a lot to be able to give, I mean
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now, got me talking about my life
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now and I need ya in my life
+I don't usually do this unless I'm drunk or I'm high
+But I'm both right now
+Southside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6658,8 +7133,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6671,7 +7153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6679,24 +7161,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6738,7 +7246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6770,9 +7278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6804,6 +7330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6979,1093 +7523,1709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" t="s">
-        <v>149</v>
       </c>
       <c r="C53" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C63" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
         <v>159</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
         <v>160</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
         <v>162</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="D70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
         <v>165</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
         <v>166</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D72" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D73" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
         <v>168</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
         <v>169</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
         <v>171</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
         <v>172</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
         <v>174</v>
       </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
         <v>176</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
         <v>177</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D84" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D85" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
         <v>179</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D86" t="s">
+        <v>270</v>
+      </c>
+      <c r="E86">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
         <v>180</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D87" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
         <v>182</v>
       </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D89" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D90" t="s">
+        <v>274</v>
+      </c>
+      <c r="E90">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
         <v>184</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D93" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
         <v>186</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
         <v>187</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D95" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="D96" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
         <v>189</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D97" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
         <v>190</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D98" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="D99" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="B69" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>224</v>
-      </c>
-      <c r="B80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>230</v>
-      </c>
-      <c r="B82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>244</v>
-      </c>
-      <c r="B87" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>247</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" t="s">
-        <v>257</v>
-      </c>
-      <c r="C91" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>259</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>261</v>
-      </c>
-      <c r="B93" t="s">
-        <v>262</v>
-      </c>
-      <c r="C93" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>267</v>
-      </c>
-      <c r="B95" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B96" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" t="s">
-        <v>274</v>
-      </c>
-      <c r="C97" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>279</v>
-      </c>
-      <c r="B99" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>284</v>
       </c>
+      <c r="E100">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>